--- a/campo_BC_com_haste_group3.xlsx
+++ b/campo_BC_com_haste_group3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnpemcamp.sharepoint.com/sites/grupoimas/Documentos Compartilhados/General/Manutenção Sirius/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana.vilela\lnls-ima\si-dipoles-bc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{FD91146C-8554-466F-BD9C-21A0F9B6E553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E509B710-55A5-49A0-8D88-252D7D1FBF56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F516EBA-AE1A-40BE-BF06-89D48CFBCE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3D8BC5B1-FFE8-429A-B9D3-3A225F319967}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D8BC5B1-FFE8-429A-B9D3-3A225F319967}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Campo magnético dos BCs medido com haste sensor group 3 pelas posições atrás </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Data:  04/05/2019   e   05/07/2019</t>
   </si>
@@ -58,9 +55,6 @@
     <t>Saída  (05/2019)</t>
   </si>
   <si>
-    <t>Temp BC</t>
-  </si>
-  <si>
     <t>Entrada (09/2021)</t>
   </si>
   <si>
@@ -68,12 +62,6 @@
   </si>
   <si>
     <t>Saída  (09/2021)</t>
-  </si>
-  <si>
-    <t>dif (entrada)</t>
-  </si>
-  <si>
-    <t>dif(saída)</t>
   </si>
   <si>
     <t>Legenda</t>
@@ -90,6 +78,27 @@
   <si>
     <t>Não medido</t>
   </si>
+  <si>
+    <t>Campo Magnético [G]</t>
+  </si>
+  <si>
+    <t>Temperatura BC [°]</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Saída</t>
+  </si>
+  <si>
+    <t>Diferença [G]</t>
+  </si>
+  <si>
+    <t>Campo magnético dos BCs medido com sensor group 3 pelas posições atrás</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,18 +151,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -171,19 +174,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -226,22 +216,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,19 +282,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,21 +317,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -336,14 +339,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,7 +396,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -437,7 +463,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -462,7 +488,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$B$3</c:f>
+              <c:f>Planilha1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -497,7 +523,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$4:$B$23</c:f>
+              <c:f>Planilha1!$B$6:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -573,7 +599,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$3</c:f>
+              <c:f>Planilha1!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -608,7 +634,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$4:$C$23</c:f>
+              <c:f>Planilha1!$C$6:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -684,7 +710,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$3</c:f>
+              <c:f>Planilha1!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -719,7 +745,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$4:$D$23</c:f>
+              <c:f>Planilha1!$D$6:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -795,7 +821,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$H$3</c:f>
+              <c:f>Planilha1!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -830,7 +856,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$H$4:$H$23</c:f>
+              <c:f>Planilha1!$H$6:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -909,7 +935,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$I$3</c:f>
+              <c:f>Planilha1!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -944,7 +970,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$I$4:$I$23</c:f>
+              <c:f>Planilha1!$I$6:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1023,7 +1049,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$J$3</c:f>
+              <c:f>Planilha1!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1058,7 +1084,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$J$4:$J$23</c:f>
+              <c:f>Planilha1!$J$6:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1204,7 +1230,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1242,7 +1268,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1953260272"/>
@@ -1326,7 +1352,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1358,7 +1384,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1768468160"/>
@@ -1401,7 +1427,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1438,7 +1464,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2032,7 +2058,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2331,1365 +2357,1554 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="37" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="37" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="I5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
+        <v>9588</v>
+      </c>
+      <c r="C6" s="12">
+        <v>11937</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9587</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9505</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11725</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9511</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="43">
+        <f>B6-H6</f>
+        <v>83</v>
+      </c>
+      <c r="M6" s="43">
+        <f>C6-I6</f>
+        <v>212</v>
+      </c>
+      <c r="N6" s="43">
+        <f>D6-J6</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11">
+        <v>9575.5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>11923</v>
+      </c>
+      <c r="D7" s="12">
+        <v>9596.5</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="31">
+        <f t="shared" ref="G7:G25" si="0">1+G6</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9513</v>
+      </c>
+      <c r="I7" s="2">
+        <v>11729</v>
+      </c>
+      <c r="J7" s="2">
+        <v>9525</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="43">
+        <f>B7-H7</f>
+        <v>62.5</v>
+      </c>
+      <c r="M7" s="43">
+        <f>C7-I7</f>
+        <v>194</v>
+      </c>
+      <c r="N7" s="43">
+        <f>D7-J7</f>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B8" s="11">
+        <v>9583.5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>11916.5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>9615</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9512</v>
+      </c>
+      <c r="I8" s="2">
+        <v>11714</v>
+      </c>
+      <c r="J8" s="2">
+        <v>9537</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="43">
+        <f>B8-H8</f>
+        <v>71.5</v>
+      </c>
+      <c r="M8" s="43">
+        <f>C8-I8</f>
+        <v>202.5</v>
+      </c>
+      <c r="N8" s="43">
+        <f>D8-J8</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11">
+        <v>9546</v>
+      </c>
+      <c r="C9" s="12">
+        <v>11910</v>
+      </c>
+      <c r="D9" s="12">
+        <v>9558</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9470</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11711</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9479</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="43">
+        <f>B9-H9</f>
+        <v>76</v>
+      </c>
+      <c r="M9" s="43">
+        <f>C9-I9</f>
+        <v>199</v>
+      </c>
+      <c r="N9" s="43">
+        <f>D9-J9</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9607</v>
+      </c>
+      <c r="C10" s="12">
+        <v>11938</v>
+      </c>
+      <c r="D10" s="12">
+        <v>9573.5</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9524</v>
+      </c>
+      <c r="I10" s="2">
+        <v>11737</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9486</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="43">
+        <f>B10-H10</f>
+        <v>83</v>
+      </c>
+      <c r="M10" s="43">
+        <f>C10-I10</f>
+        <v>201</v>
+      </c>
+      <c r="N10" s="43">
+        <f>D10-J10</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9584</v>
+      </c>
+      <c r="C11" s="12">
+        <v>11908</v>
+      </c>
+      <c r="D11" s="12">
+        <v>9624</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9495</v>
+      </c>
+      <c r="I11" s="2">
+        <v>11703</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9532</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="43">
+        <f>B11-H11</f>
+        <v>89</v>
+      </c>
+      <c r="M11" s="43">
+        <f>C11-I11</f>
+        <v>205</v>
+      </c>
+      <c r="N11" s="43">
+        <f>D11-J11</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9654</v>
+      </c>
+      <c r="C12" s="12">
+        <v>11961</v>
+      </c>
+      <c r="D12" s="12">
+        <v>9647</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9533</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11731</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9523</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="43">
+        <f>B12-H12</f>
+        <v>121</v>
+      </c>
+      <c r="M12" s="43">
+        <f>C12-I12</f>
+        <v>230</v>
+      </c>
+      <c r="N12" s="43">
+        <f>D12-J12</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="B13" s="11">
+        <v>9606.5</v>
+      </c>
+      <c r="C13" s="12">
+        <v>11916</v>
+      </c>
+      <c r="D13" s="12">
+        <v>9613</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9493</v>
+      </c>
+      <c r="I13" s="2">
+        <v>11691</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9498</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="43">
+        <f>B13-H13</f>
+        <v>113.5</v>
+      </c>
+      <c r="M13" s="43">
+        <f>C13-I13</f>
+        <v>225</v>
+      </c>
+      <c r="N13" s="43">
+        <f>D13-J13</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="24">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13">
-        <v>9588</v>
-      </c>
-      <c r="C4" s="14">
-        <v>11937</v>
-      </c>
-      <c r="D4" s="14">
-        <v>9587</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="G4" s="34">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9505</v>
-      </c>
-      <c r="I4" s="2">
-        <v>11725</v>
-      </c>
-      <c r="J4" s="2">
-        <v>9511</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="35">
-        <f>B4-H4</f>
+      <c r="B14" s="11">
+        <v>9590</v>
+      </c>
+      <c r="C14" s="12">
+        <v>11895</v>
+      </c>
+      <c r="D14" s="12">
+        <v>9625</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H14" s="2">
+        <v>9507</v>
+      </c>
+      <c r="I14" s="2">
+        <v>11697</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9540</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="43">
+        <f>B14-H14</f>
         <v>83</v>
       </c>
-      <c r="M4" s="35">
-        <f>C4-I4</f>
-        <v>212</v>
-      </c>
-      <c r="N4" s="35">
-        <f>D4-J4</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="24">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13">
-        <v>9575.5</v>
-      </c>
-      <c r="C5" s="14">
-        <v>11923</v>
-      </c>
-      <c r="D5" s="14">
-        <v>9596.5</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="34">
-        <f>1+G4</f>
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>9513</v>
-      </c>
-      <c r="I5" s="2">
-        <v>11729</v>
-      </c>
-      <c r="J5" s="2">
-        <v>9525</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="35">
-        <f>B5-H5</f>
-        <v>62.5</v>
-      </c>
-      <c r="M5" s="35">
-        <f>C5-I5</f>
-        <v>194</v>
-      </c>
-      <c r="N5" s="35">
-        <f>D5-J5</f>
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="24">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13">
-        <v>9583.5</v>
-      </c>
-      <c r="C6" s="14">
-        <v>11916.5</v>
-      </c>
-      <c r="D6" s="14">
-        <v>9615</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="34">
-        <f>1+G5</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>9512</v>
-      </c>
-      <c r="I6" s="2">
-        <v>11714</v>
-      </c>
-      <c r="J6" s="2">
-        <v>9537</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="35">
-        <f>B6-H6</f>
-        <v>71.5</v>
-      </c>
-      <c r="M6" s="35">
-        <f>C6-I6</f>
-        <v>202.5</v>
-      </c>
-      <c r="N6" s="35">
-        <f>D6-J6</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="24">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13">
-        <v>9546</v>
-      </c>
-      <c r="C7" s="14">
-        <v>11910</v>
-      </c>
-      <c r="D7" s="14">
-        <v>9558</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="G7" s="34">
-        <f>1+G6</f>
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9470</v>
-      </c>
-      <c r="I7" s="2">
-        <v>11711</v>
-      </c>
-      <c r="J7" s="2">
-        <v>9479</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="35">
-        <f>B7-H7</f>
-        <v>76</v>
-      </c>
-      <c r="M7" s="35">
-        <f>C7-I7</f>
-        <v>199</v>
-      </c>
-      <c r="N7" s="35">
-        <f>D7-J7</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="24">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13">
-        <v>9607</v>
-      </c>
-      <c r="C8" s="14">
-        <v>11938</v>
-      </c>
-      <c r="D8" s="14">
-        <v>9573.5</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="G8" s="34">
-        <f>1+G7</f>
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>9524</v>
-      </c>
-      <c r="I8" s="2">
-        <v>11737</v>
-      </c>
-      <c r="J8" s="2">
-        <v>9486</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="35">
-        <f>B8-H8</f>
-        <v>83</v>
-      </c>
-      <c r="M8" s="35">
-        <f>C8-I8</f>
-        <v>201</v>
-      </c>
-      <c r="N8" s="35">
-        <f>D8-J8</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="24">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13">
-        <v>9584</v>
-      </c>
-      <c r="C9" s="14">
-        <v>11908</v>
-      </c>
-      <c r="D9" s="14">
-        <v>9624</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="G9" s="34">
-        <f>1+G8</f>
-        <v>6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>9495</v>
-      </c>
-      <c r="I9" s="2">
-        <v>11703</v>
-      </c>
-      <c r="J9" s="2">
-        <v>9532</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="35">
-        <f>B9-H9</f>
-        <v>89</v>
-      </c>
-      <c r="M9" s="35">
-        <f>C9-I9</f>
-        <v>205</v>
-      </c>
-      <c r="N9" s="35">
-        <f>D9-J9</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="24">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13">
-        <v>9654</v>
-      </c>
-      <c r="C10" s="14">
-        <v>11961</v>
-      </c>
-      <c r="D10" s="14">
-        <v>9647</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="G10" s="34">
-        <f>1+G9</f>
-        <v>7</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9533</v>
-      </c>
-      <c r="I10" s="2">
-        <v>11731</v>
-      </c>
-      <c r="J10" s="2">
-        <v>9523</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="35">
-        <f>B10-H10</f>
-        <v>121</v>
-      </c>
-      <c r="M10" s="35">
-        <f>C10-I10</f>
-        <v>230</v>
-      </c>
-      <c r="N10" s="35">
-        <f>D10-J10</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="24">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13">
-        <v>9606.5</v>
-      </c>
-      <c r="C11" s="14">
-        <v>11916</v>
-      </c>
-      <c r="D11" s="14">
-        <v>9613</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="G11" s="34">
-        <f>1+G10</f>
-        <v>8</v>
-      </c>
-      <c r="H11" s="2">
-        <v>9493</v>
-      </c>
-      <c r="I11" s="2">
-        <v>11691</v>
-      </c>
-      <c r="J11" s="2">
-        <v>9498</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="35">
-        <f>B11-H11</f>
-        <v>113.5</v>
-      </c>
-      <c r="M11" s="35">
-        <f>C11-I11</f>
-        <v>225</v>
-      </c>
-      <c r="N11" s="35">
-        <f>D11-J11</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="24">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13">
-        <v>9590</v>
-      </c>
-      <c r="C12" s="14">
-        <v>11895</v>
-      </c>
-      <c r="D12" s="14">
-        <v>9625</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="G12" s="34">
-        <f>1+G11</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="2">
-        <v>9507</v>
-      </c>
-      <c r="I12" s="2">
-        <v>11697</v>
-      </c>
-      <c r="J12" s="2">
-        <v>9540</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="35">
-        <f>B12-H12</f>
-        <v>83</v>
-      </c>
-      <c r="M12" s="35">
-        <f>C12-I12</f>
-        <v>198</v>
-      </c>
-      <c r="N12" s="35">
-        <f>D12-J12</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="24">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13">
-        <v>9583.5</v>
-      </c>
-      <c r="C13" s="14">
-        <v>11899</v>
-      </c>
-      <c r="D13" s="14">
-        <v>9559.5</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="G13" s="34">
-        <f>1+G12</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="2">
-        <v>9502</v>
-      </c>
-      <c r="I13" s="2">
-        <v>11706</v>
-      </c>
-      <c r="J13" s="2">
-        <v>9478</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="35">
-        <f>B13-H13</f>
-        <v>81.5</v>
-      </c>
-      <c r="M13" s="35">
-        <f>C13-I13</f>
-        <v>193</v>
-      </c>
-      <c r="N13" s="35">
-        <f>D13-J13</f>
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="24">
-        <v>11</v>
-      </c>
-      <c r="B14" s="13">
-        <v>9583.5</v>
-      </c>
-      <c r="C14" s="14">
-        <v>11871</v>
-      </c>
-      <c r="D14" s="14">
-        <v>9583.5</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="G14" s="34">
-        <f>1+G13</f>
-        <v>11</v>
-      </c>
-      <c r="H14" s="2">
-        <v>9518</v>
-      </c>
-      <c r="I14" s="2">
-        <v>11673</v>
-      </c>
-      <c r="J14" s="2">
-        <v>9502</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="35">
-        <f>B14-H14</f>
-        <v>65.5</v>
-      </c>
-      <c r="M14" s="35">
+      <c r="M14" s="43">
         <f>C14-I14</f>
         <v>198</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="43">
         <f>D14-J14</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11">
+        <v>9583.5</v>
+      </c>
+      <c r="C15" s="12">
+        <v>11899</v>
+      </c>
+      <c r="D15" s="12">
+        <v>9559.5</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9502</v>
+      </c>
+      <c r="I15" s="2">
+        <v>11706</v>
+      </c>
+      <c r="J15" s="2">
+        <v>9478</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="43">
+        <f>B15-H15</f>
         <v>81.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="24">
+      <c r="M15" s="43">
+        <f>C15-I15</f>
+        <v>193</v>
+      </c>
+      <c r="N15" s="43">
+        <f>D15-J15</f>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9583.5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>11871</v>
+      </c>
+      <c r="D16" s="12">
+        <v>9583.5</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9518</v>
+      </c>
+      <c r="I16" s="2">
+        <v>11673</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9502</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="43">
+        <f>B16-H16</f>
+        <v>65.5</v>
+      </c>
+      <c r="M16" s="43">
+        <f>C16-I16</f>
+        <v>198</v>
+      </c>
+      <c r="N16" s="43">
+        <f>D16-J16</f>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B17" s="11">
         <v>9576</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C17" s="12">
         <v>11889</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D17" s="12">
         <v>9614</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="G15" s="34">
-        <f>1+G14</f>
+      <c r="E17" s="8"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="31">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H17" s="2">
         <v>9492</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I17" s="2">
         <v>11711</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J17" s="2">
         <v>9533</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="35">
-        <f>B15-H15</f>
+      <c r="K17" s="2"/>
+      <c r="L17" s="43">
+        <f>B17-H17</f>
         <v>84</v>
       </c>
-      <c r="M15" s="35">
-        <f>C15-I15</f>
+      <c r="M17" s="43">
+        <f>C17-I17</f>
         <v>178</v>
       </c>
-      <c r="N15" s="35">
-        <f>D15-J15</f>
+      <c r="N17" s="43">
+        <f>D17-J17</f>
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="9">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B18" s="13">
         <v>9617.5</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C18" s="14">
         <v>11919</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D18" s="14">
         <v>9640</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="G16" s="34">
-        <f>1+G15</f>
+      <c r="E18" s="9"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="31">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
         <v>9532</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I18" s="2">
         <v>11691</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J18" s="2">
         <v>9547</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="35">
-        <f>B16-H16</f>
+      <c r="K18" s="2"/>
+      <c r="L18" s="43">
+        <f>B18-H18</f>
         <v>85.5</v>
       </c>
-      <c r="M16" s="35">
-        <f>C16-I16</f>
+      <c r="M18" s="43">
+        <f>C18-I18</f>
         <v>228</v>
       </c>
-      <c r="N16" s="35">
-        <f>D16-J16</f>
+      <c r="N18" s="43">
+        <f>D18-J18</f>
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="9">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B19" s="13">
         <v>9621</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C19" s="14">
         <v>11900</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D19" s="14">
         <v>9616</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="G17" s="34">
-        <f>1+G16</f>
+      <c r="E19" s="9"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="31">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H19" s="2">
         <v>9522</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I19" s="2">
         <v>11659</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J19" s="2">
         <v>9524</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="35">
-        <f>B17-H17</f>
+      <c r="K19" s="2"/>
+      <c r="L19" s="43">
+        <f>B19-H19</f>
         <v>99</v>
       </c>
-      <c r="M17" s="35">
-        <f>C17-I17</f>
+      <c r="M19" s="43">
+        <f>C19-I19</f>
         <v>241</v>
       </c>
-      <c r="N17" s="35">
-        <f>D17-J17</f>
+      <c r="N19" s="43">
+        <f>D19-J19</f>
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="19">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="G18" s="34">
-        <f>1+G17</f>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H20" s="2">
         <v>9510</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I20" s="2">
         <v>11715</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J20" s="2">
         <v>9500</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="9">
+      <c r="K20" s="2"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B21" s="13">
         <v>9572.5</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C21" s="14">
         <v>11889</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D21" s="14">
         <v>9598.5</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="G19" s="34">
-        <f>1+G18</f>
+      <c r="E21" s="9"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="31">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <v>9504</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I21" s="2">
         <v>11690</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J21" s="2">
         <v>9510</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="35">
-        <f>B19-H19</f>
+      <c r="K21" s="2"/>
+      <c r="L21" s="43">
+        <f>B21-H21</f>
         <v>68.5</v>
       </c>
-      <c r="M19" s="35">
-        <f>C19-I19</f>
+      <c r="M21" s="43">
+        <f>C21-I21</f>
         <v>199</v>
       </c>
-      <c r="N19" s="35">
-        <f>D19-J19</f>
+      <c r="N21" s="43">
+        <f>D21-J21</f>
         <v>88.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="9">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B22" s="13">
         <v>9585</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C22" s="14">
         <v>11911.5</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D22" s="14">
         <v>9613</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="G20" s="34">
-        <f>1+G19</f>
+      <c r="E22" s="9"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="31">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <v>9509</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I22" s="2">
         <v>11711</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J22" s="2">
         <v>9533</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="35">
-        <f>B20-H20</f>
+      <c r="K22" s="2"/>
+      <c r="L22" s="43">
+        <f>B22-H22</f>
         <v>76</v>
       </c>
-      <c r="M20" s="35">
-        <f>C20-I20</f>
+      <c r="M22" s="43">
+        <f>C22-I22</f>
         <v>200.5</v>
       </c>
-      <c r="N20" s="35">
-        <f>D20-J20</f>
+      <c r="N22" s="43">
+        <f>D22-J22</f>
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="9">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B23" s="13">
         <v>9589.5</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C23" s="14">
         <v>11905</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D23" s="14">
         <v>9616</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="G21" s="34">
-        <f>1+G20</f>
+      <c r="E23" s="9"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="31">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="2">
         <v>9506</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I23" s="2">
         <v>11699</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J23" s="2">
         <v>9535</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="35">
-        <f>B21-H21</f>
+      <c r="K23" s="2"/>
+      <c r="L23" s="43">
+        <f>B23-H23</f>
         <v>83.5</v>
       </c>
-      <c r="M21" s="35">
-        <f>C21-I21</f>
+      <c r="M23" s="43">
+        <f>C23-I23</f>
         <v>206</v>
       </c>
-      <c r="N21" s="35">
-        <f>D21-J21</f>
+      <c r="N23" s="43">
+        <f>D23-J23</f>
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="9">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B24" s="13">
         <v>9616</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C24" s="14">
         <v>11898</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D24" s="14">
         <v>9598.5</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="G22" s="34">
-        <f>1+G21</f>
+      <c r="E24" s="9"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="31">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H24" s="2">
         <v>9539</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I24" s="2">
         <v>11685</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J24" s="2">
         <v>9518</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="35">
-        <f>B22-H22</f>
+      <c r="K24" s="2"/>
+      <c r="L24" s="43">
+        <f>B24-H24</f>
         <v>77</v>
       </c>
-      <c r="M22" s="35">
-        <f>C22-I22</f>
+      <c r="M24" s="43">
+        <f>C24-I24</f>
         <v>213</v>
       </c>
-      <c r="N22" s="35">
-        <f>D22-J22</f>
+      <c r="N24" s="43">
+        <f>D24-J24</f>
         <v>80.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B25" s="15">
         <v>9441</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C25" s="16">
         <v>11741</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D25" s="16">
         <v>9421</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="G23" s="34">
-        <f>1+G22</f>
+      <c r="E25" s="10"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="31">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="2">
         <v>9512</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I25" s="2">
         <v>11692</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J25" s="2">
         <v>9496</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="35">
-        <f>B23-H23</f>
+      <c r="K25" s="2"/>
+      <c r="L25" s="43">
+        <f>B25-H25</f>
         <v>-71</v>
       </c>
-      <c r="M23" s="35">
-        <f>C23-I23</f>
+      <c r="M25" s="43">
+        <f>C25-I25</f>
         <v>49</v>
       </c>
-      <c r="N23" s="35">
-        <f>D23-J23</f>
+      <c r="N25" s="43">
+        <f>D25-J25</f>
         <v>-75</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="42" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="6"/>
-      <c r="B26" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="7"/>
-      <c r="B27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="8"/>
-      <c r="B28" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="23"/>
-      <c r="B29" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="34"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="34"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="34"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="34"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="34"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="34"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="34"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="34"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="34"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="34"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="34"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="34"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="34"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="34"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="34"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="34"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="34"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="34"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="34"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="34"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="34"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G33:K33"/>
+  <mergeCells count="15">
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -3697,6 +3912,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007A7E416D919B234B9674A954BD75FE26" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="732e1eee9d76b5142dbae3a81082dbc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dfe0e87d-c18b-4fe8-a38f-f5371de371f3" xmlns:ns3="2d1c0536-4bd1-4da3-8d9b-e331e956cbc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10d811aa86ef12152b3743135c99fc5c" ns2:_="" ns3:_="">
     <xsd:import namespace="dfe0e87d-c18b-4fe8-a38f-f5371de371f3"/>
@@ -3893,29 +4123,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5527C09E-379E-4757-BF52-93E6FDCCA789}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A0A6AE-BDF3-4C7E-95D8-42D3AD76675C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDD9E22E-5DCA-4D76-99F6-949319FDA9B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDD9E22E-5DCA-4D76-99F6-949319FDA9B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A0A6AE-BDF3-4C7E-95D8-42D3AD76675C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5527C09E-379E-4757-BF52-93E6FDCCA789}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dfe0e87d-c18b-4fe8-a38f-f5371de371f3"/>
+    <ds:schemaRef ds:uri="2d1c0536-4bd1-4da3-8d9b-e331e956cbc8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>